--- a/web_jfk/media/MultimediaData/doc_estudiantes/estudiantes.xlsx
+++ b/web_jfk/media/MultimediaData/doc_estudiantes/estudiantes.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView activeTab="0" windowHeight="8010" windowWidth="20115" xWindow="240" yWindow="60"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames/>
+  <calcPr calcId="145621" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>Daniel Alejandro</t>
   </si>
@@ -39,19 +39,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,21 +68,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -371,22 +366,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="12"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="15.85546875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="14.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:4">
+      <c r="A1" t="n">
         <v>1061692955</v>
       </c>
       <c r="B1" t="s">
@@ -395,9 +394,12 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:4">
+      <c r="A2" t="n">
         <v>96123114423</v>
       </c>
       <c r="B2" t="s">
@@ -406,10 +408,13 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1059913733</v>
+    <row r="3" spans="1:4">
+      <c r="A3" t="n">
+        <v>11059913733</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -417,33 +422,101 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
     </row>
+    <row r="4" spans="1:4"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="17.28515625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="n">
+        <v>105933</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="n">
+        <v>10599113733</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="n">
+        <v>10599133733</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>